--- a/techniqo/data_new_ticker/SPANDANA.xlsx
+++ b/techniqo/data_new_ticker/SPANDANA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9766,6 +9766,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>575</v>
+      </c>
+      <c r="C269" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>561</v>
+      </c>
+      <c r="E269" t="n">
+        <v>572.15</v>
+      </c>
+      <c r="F269" t="n">
+        <v>80284</v>
+      </c>
+      <c r="G269" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>574.9</v>
+      </c>
+      <c r="C270" t="n">
+        <v>580</v>
+      </c>
+      <c r="D270" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>577.05</v>
+      </c>
+      <c r="F270" t="n">
+        <v>34019</v>
+      </c>
+      <c r="G270" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SPANDANA.xlsx
+++ b/techniqo/data_new_ticker/SPANDANA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9816,6 +9816,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>584</v>
+      </c>
+      <c r="C271" t="n">
+        <v>587.55</v>
+      </c>
+      <c r="D271" t="n">
+        <v>571.45</v>
+      </c>
+      <c r="E271" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30073</v>
+      </c>
+      <c r="G271" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="C272" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>564.3</v>
+      </c>
+      <c r="E272" t="n">
+        <v>568.45</v>
+      </c>
+      <c r="F272" t="n">
+        <v>79056</v>
+      </c>
+      <c r="G272" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
